--- a/data/pca/factorExposure/factorExposure_2015-04-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-04-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02328592484362851</v>
+        <v>0.01070055708519772</v>
       </c>
       <c r="C2">
-        <v>0.0249145032943093</v>
+        <v>0.05176535597762646</v>
       </c>
       <c r="D2">
-        <v>0.1269063807137237</v>
+        <v>0.1261421015038294</v>
       </c>
       <c r="E2">
-        <v>0.01096046039900944</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02581141389734383</v>
+      </c>
+      <c r="F2">
+        <v>0.02032448611344393</v>
+      </c>
+      <c r="G2">
+        <v>0.08209234244823108</v>
+      </c>
+      <c r="H2">
+        <v>-0.1188140515391117</v>
+      </c>
+      <c r="I2">
+        <v>-0.06828269884200366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04333930457760271</v>
+        <v>0.01563299408003358</v>
       </c>
       <c r="C4">
-        <v>0.07121573772038708</v>
+        <v>0.106194068072014</v>
       </c>
       <c r="D4">
-        <v>0.1021899618901455</v>
+        <v>0.1277929675606128</v>
       </c>
       <c r="E4">
-        <v>0.08773029732495852</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01870965743086251</v>
+      </c>
+      <c r="F4">
+        <v>0.09277147485295729</v>
+      </c>
+      <c r="G4">
+        <v>-0.0008871949578483701</v>
+      </c>
+      <c r="H4">
+        <v>-0.04480165436905231</v>
+      </c>
+      <c r="I4">
+        <v>0.07554848653352346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02532798538903482</v>
+        <v>0.02980013101187472</v>
       </c>
       <c r="C6">
-        <v>0.01235431815815304</v>
+        <v>0.03660115039458652</v>
       </c>
       <c r="D6">
-        <v>0.1275809504095274</v>
+        <v>0.1219419053765909</v>
       </c>
       <c r="E6">
-        <v>0.05628302806957544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.06374470055490347</v>
+      </c>
+      <c r="F6">
+        <v>0.04326485257704216</v>
+      </c>
+      <c r="G6">
+        <v>-0.02744734355196765</v>
+      </c>
+      <c r="H6">
+        <v>-0.03919894450717473</v>
+      </c>
+      <c r="I6">
+        <v>0.00432814109762973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.001761585550198332</v>
+        <v>0.005865926280596363</v>
       </c>
       <c r="C7">
-        <v>0.02272503785830732</v>
+        <v>0.03820039547554948</v>
       </c>
       <c r="D7">
-        <v>0.1080992809941596</v>
+        <v>0.09698370325388248</v>
       </c>
       <c r="E7">
-        <v>0.01812497663240007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.04927244633752448</v>
+      </c>
+      <c r="F7">
+        <v>0.004006678740813196</v>
+      </c>
+      <c r="G7">
+        <v>-0.0513903367788024</v>
+      </c>
+      <c r="H7">
+        <v>-0.06960167232011598</v>
+      </c>
+      <c r="I7">
+        <v>0.05436467659239308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>8.300730445994878e-05</v>
+        <v>-0.007701913513207536</v>
       </c>
       <c r="C8">
-        <v>0.02500997665392536</v>
+        <v>0.0351882934010338</v>
       </c>
       <c r="D8">
-        <v>0.0823682285641848</v>
+        <v>0.07553387550300715</v>
       </c>
       <c r="E8">
-        <v>0.03927138314396579</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.03593458178131546</v>
+      </c>
+      <c r="F8">
+        <v>0.0509055883319321</v>
+      </c>
+      <c r="G8">
+        <v>0.05555231082644144</v>
+      </c>
+      <c r="H8">
+        <v>-0.0385517890840117</v>
+      </c>
+      <c r="I8">
+        <v>0.02531512174060627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03464626347660892</v>
+        <v>0.01142625498101655</v>
       </c>
       <c r="C9">
-        <v>0.06063747144439714</v>
+        <v>0.08757899921558304</v>
       </c>
       <c r="D9">
-        <v>0.1095116774875749</v>
+        <v>0.1099625491542612</v>
       </c>
       <c r="E9">
-        <v>0.07101370680549254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01642667092949367</v>
+      </c>
+      <c r="F9">
+        <v>0.06090273394316574</v>
+      </c>
+      <c r="G9">
+        <v>-0.03193494172386301</v>
+      </c>
+      <c r="H9">
+        <v>-0.05050404691331122</v>
+      </c>
+      <c r="I9">
+        <v>0.0432787488607269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1740332697910141</v>
+        <v>0.2409052293071265</v>
       </c>
       <c r="C10">
-        <v>-0.1733919015587053</v>
+        <v>-0.08880923394746661</v>
       </c>
       <c r="D10">
-        <v>-0.008952048734430538</v>
+        <v>-0.005290188397202687</v>
       </c>
       <c r="E10">
-        <v>0.05108392112195326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01381472016851842</v>
+      </c>
+      <c r="F10">
+        <v>0.04887299261617113</v>
+      </c>
+      <c r="G10">
+        <v>0.008288345431479755</v>
+      </c>
+      <c r="H10">
+        <v>0.01067305717028489</v>
+      </c>
+      <c r="I10">
+        <v>-0.01716130080227551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01944456807533413</v>
+        <v>0.009731800512840352</v>
       </c>
       <c r="C11">
-        <v>0.04199492420388019</v>
+        <v>0.05890122847329506</v>
       </c>
       <c r="D11">
-        <v>0.04223727384849264</v>
+        <v>0.04046427976623291</v>
       </c>
       <c r="E11">
-        <v>-0.01568851060577813</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02155092001474678</v>
+      </c>
+      <c r="F11">
+        <v>-0.01581722854326325</v>
+      </c>
+      <c r="G11">
+        <v>-0.02886168817144103</v>
+      </c>
+      <c r="H11">
+        <v>-0.03456141739828417</v>
+      </c>
+      <c r="I11">
+        <v>0.03957999838980565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01868288235912231</v>
+        <v>0.009334296035945084</v>
       </c>
       <c r="C12">
-        <v>0.04215765106147256</v>
+        <v>0.05073963055726097</v>
       </c>
       <c r="D12">
-        <v>0.05503397841634864</v>
+        <v>0.04469109034578744</v>
       </c>
       <c r="E12">
-        <v>-0.006300642444973774</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01594208769882773</v>
+      </c>
+      <c r="F12">
+        <v>-0.01943976693547577</v>
+      </c>
+      <c r="G12">
+        <v>-0.05178820541369655</v>
+      </c>
+      <c r="H12">
+        <v>-0.04953198373833531</v>
+      </c>
+      <c r="I12">
+        <v>0.0151031022553076</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.005062439205011004</v>
+        <v>-0.004833679855638236</v>
       </c>
       <c r="C13">
-        <v>0.02471040372785077</v>
+        <v>0.04942318106514516</v>
       </c>
       <c r="D13">
-        <v>0.1287056386549352</v>
+        <v>0.1432934374205992</v>
       </c>
       <c r="E13">
-        <v>0.04699620515769302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03863468952072419</v>
+      </c>
+      <c r="F13">
+        <v>0.0284820082339685</v>
+      </c>
+      <c r="G13">
+        <v>-0.01271134052445601</v>
+      </c>
+      <c r="H13">
+        <v>-0.08326540632638015</v>
+      </c>
+      <c r="I13">
+        <v>-0.0348850057486306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.004048935622586665</v>
+        <v>0.002679218982175738</v>
       </c>
       <c r="C14">
-        <v>0.01694236862569949</v>
+        <v>0.03197607861972849</v>
       </c>
       <c r="D14">
-        <v>0.08551137144974109</v>
+        <v>0.09831166510560212</v>
       </c>
       <c r="E14">
-        <v>0.01960240827183001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.05180200419023006</v>
+      </c>
+      <c r="F14">
+        <v>0.02797880004481796</v>
+      </c>
+      <c r="G14">
+        <v>-0.03998064098237963</v>
+      </c>
+      <c r="H14">
+        <v>-0.1332243620863061</v>
+      </c>
+      <c r="I14">
+        <v>0.01725889375636931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.002559970994601385</v>
+        <v>-0.004808340898637453</v>
       </c>
       <c r="C15">
-        <v>0.009996878549570071</v>
+        <v>0.02850060069200168</v>
       </c>
       <c r="D15">
-        <v>0.03552835127018357</v>
+        <v>0.06201229557653734</v>
       </c>
       <c r="E15">
-        <v>-0.002857439346088281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.015108016129863</v>
+      </c>
+      <c r="F15">
+        <v>0.00852023182327274</v>
+      </c>
+      <c r="G15">
+        <v>0.004050990210885449</v>
+      </c>
+      <c r="H15">
+        <v>-0.0480995129901994</v>
+      </c>
+      <c r="I15">
+        <v>0.02281504925071729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.0181719691233003</v>
+        <v>0.008948025165302046</v>
       </c>
       <c r="C16">
-        <v>0.03772513142910155</v>
+        <v>0.05074857124854067</v>
       </c>
       <c r="D16">
-        <v>0.04678572150591506</v>
+        <v>0.04186421481066521</v>
       </c>
       <c r="E16">
-        <v>-0.005744098547704724</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02306852535598706</v>
+      </c>
+      <c r="F16">
+        <v>-0.01065481869961046</v>
+      </c>
+      <c r="G16">
+        <v>-0.03755865979889759</v>
+      </c>
+      <c r="H16">
+        <v>-0.03096551796075806</v>
+      </c>
+      <c r="I16">
+        <v>0.02499299284884526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.0002439901466603145</v>
+        <v>-0.002945741907194411</v>
       </c>
       <c r="C19">
-        <v>0.02033763349731839</v>
+        <v>0.01617493898256963</v>
       </c>
       <c r="D19">
-        <v>0.07825835923791498</v>
+        <v>0.05249398415693942</v>
       </c>
       <c r="E19">
-        <v>0.02889693358857639</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.008796036020648589</v>
+      </c>
+      <c r="F19">
+        <v>0.0102409703785379</v>
+      </c>
+      <c r="G19">
+        <v>-0.005680509121177327</v>
+      </c>
+      <c r="H19">
+        <v>-0.0494693446803247</v>
+      </c>
+      <c r="I19">
+        <v>-0.008566225636309877</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002973216664310244</v>
+        <v>0.003972096577060135</v>
       </c>
       <c r="C20">
-        <v>0.02497919257657046</v>
+        <v>0.04161396463314695</v>
       </c>
       <c r="D20">
-        <v>0.07604589163382253</v>
+        <v>0.08724280176129752</v>
       </c>
       <c r="E20">
-        <v>0.03828764975833781</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02446697092655204</v>
+      </c>
+      <c r="F20">
+        <v>0.02476871870625817</v>
+      </c>
+      <c r="G20">
+        <v>-0.03325454979916057</v>
+      </c>
+      <c r="H20">
+        <v>-0.04532189731209224</v>
+      </c>
+      <c r="I20">
+        <v>0.04894900506382059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.005101619472950463</v>
+        <v>0.002231844789380032</v>
       </c>
       <c r="C21">
-        <v>0.03050606898313124</v>
+        <v>0.04632891132352897</v>
       </c>
       <c r="D21">
-        <v>0.1394874826867948</v>
+        <v>0.1243423618857381</v>
       </c>
       <c r="E21">
-        <v>0.08546355145901324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03434333737743594</v>
+      </c>
+      <c r="F21">
+        <v>0.08520761267244398</v>
+      </c>
+      <c r="G21">
+        <v>-0.04356945185850629</v>
+      </c>
+      <c r="H21">
+        <v>-0.1965132285616769</v>
+      </c>
+      <c r="I21">
+        <v>-0.04160152043354511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.001784381166485334</v>
+        <v>-0.01421795145645012</v>
       </c>
       <c r="C22">
-        <v>0.0683697414298424</v>
+        <v>0.0881761046645942</v>
       </c>
       <c r="D22">
-        <v>0.3006239022987058</v>
+        <v>0.2703635469791541</v>
       </c>
       <c r="E22">
-        <v>0.04468551557825777</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.06555738369354526</v>
+      </c>
+      <c r="F22">
+        <v>0.0184536704009832</v>
+      </c>
+      <c r="G22">
+        <v>0.4865059190324092</v>
+      </c>
+      <c r="H22">
+        <v>0.2511287487045639</v>
+      </c>
+      <c r="I22">
+        <v>-0.05854404082270499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.002060365947584313</v>
+        <v>-0.0110623116221872</v>
       </c>
       <c r="C23">
-        <v>0.06884124013946023</v>
+        <v>0.08995356076573002</v>
       </c>
       <c r="D23">
-        <v>0.3000985506335928</v>
+        <v>0.2729073470507835</v>
       </c>
       <c r="E23">
-        <v>0.0448700595300844</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.06059372766771654</v>
+      </c>
+      <c r="F23">
+        <v>0.02163381957056416</v>
+      </c>
+      <c r="G23">
+        <v>0.4711120730424943</v>
+      </c>
+      <c r="H23">
+        <v>0.2392851851636756</v>
+      </c>
+      <c r="I23">
+        <v>-0.05806337786925364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02388756423559879</v>
+        <v>0.009467815994457155</v>
       </c>
       <c r="C24">
-        <v>0.05750579118432296</v>
+        <v>0.06734850702829319</v>
       </c>
       <c r="D24">
-        <v>0.05611284970301485</v>
+        <v>0.04574842606896078</v>
       </c>
       <c r="E24">
-        <v>-0.004317433037034553</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02957427856477565</v>
+      </c>
+      <c r="F24">
+        <v>-0.008523070154292925</v>
+      </c>
+      <c r="G24">
+        <v>-0.03434898134370436</v>
+      </c>
+      <c r="H24">
+        <v>-0.0580211447643946</v>
+      </c>
+      <c r="I24">
+        <v>0.03658247447924438</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02423580710894436</v>
+        <v>0.01339543978758713</v>
       </c>
       <c r="C25">
-        <v>0.04917317614701155</v>
+        <v>0.0619201630611909</v>
       </c>
       <c r="D25">
-        <v>0.05417783250860809</v>
+        <v>0.04855827664729832</v>
       </c>
       <c r="E25">
-        <v>0.002393301860307844</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01521189879969457</v>
+      </c>
+      <c r="F25">
+        <v>-0.007131324355321104</v>
+      </c>
+      <c r="G25">
+        <v>-0.02754834935292245</v>
+      </c>
+      <c r="H25">
+        <v>-0.02512984440796262</v>
+      </c>
+      <c r="I25">
+        <v>0.02309774779942082</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.009680202590986668</v>
+        <v>0.01693522912672843</v>
       </c>
       <c r="C26">
-        <v>0.01512772589640994</v>
+        <v>0.0294283506889774</v>
       </c>
       <c r="D26">
-        <v>0.07427208164952517</v>
+        <v>0.06614114036365959</v>
       </c>
       <c r="E26">
-        <v>0.02959969885113893</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04033010104802996</v>
+      </c>
+      <c r="F26">
+        <v>0.0423457457967476</v>
+      </c>
+      <c r="G26">
+        <v>-0.0324964180880425</v>
+      </c>
+      <c r="H26">
+        <v>-0.09989192382892073</v>
+      </c>
+      <c r="I26">
+        <v>0.01746503077685204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2600038953176497</v>
+        <v>0.3193397424042033</v>
       </c>
       <c r="C28">
-        <v>-0.195355897172002</v>
+        <v>-0.08525244954903202</v>
       </c>
       <c r="D28">
-        <v>0.008456980836247352</v>
+        <v>-0.02440652839471698</v>
       </c>
       <c r="E28">
-        <v>0.04815733580910891</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.04837610615208326</v>
+      </c>
+      <c r="F28">
+        <v>0.04558366970782327</v>
+      </c>
+      <c r="G28">
+        <v>0.05772457799109038</v>
+      </c>
+      <c r="H28">
+        <v>-0.01439811113533992</v>
+      </c>
+      <c r="I28">
+        <v>0.007001604761333402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0002205290449715822</v>
+        <v>0.001069243618790988</v>
       </c>
       <c r="C29">
-        <v>0.02068465383036702</v>
+        <v>0.03737966561558455</v>
       </c>
       <c r="D29">
-        <v>0.08313910957734777</v>
+        <v>0.1019978429997236</v>
       </c>
       <c r="E29">
-        <v>0.02993969478851883</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.05798776376280013</v>
+      </c>
+      <c r="F29">
+        <v>0.03361443932187861</v>
+      </c>
+      <c r="G29">
+        <v>-0.05504502457358518</v>
+      </c>
+      <c r="H29">
+        <v>-0.1415152647518214</v>
+      </c>
+      <c r="I29">
+        <v>0.01833131093581138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02565507442939756</v>
+        <v>0.01227358800636544</v>
       </c>
       <c r="C30">
-        <v>0.0635772635520859</v>
+        <v>0.09189754364001125</v>
       </c>
       <c r="D30">
-        <v>0.1480852002457868</v>
+        <v>0.1377825095128126</v>
       </c>
       <c r="E30">
-        <v>0.03424327316077142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05521306729014777</v>
+      </c>
+      <c r="F30">
+        <v>0.01985734957122326</v>
+      </c>
+      <c r="G30">
+        <v>0.002247975771122853</v>
+      </c>
+      <c r="H30">
+        <v>-0.0429956038828038</v>
+      </c>
+      <c r="I30">
+        <v>0.0553331838718471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03665784072263576</v>
+        <v>0.006769276378911321</v>
       </c>
       <c r="C31">
-        <v>0.08425022216102918</v>
+        <v>0.09446885644885526</v>
       </c>
       <c r="D31">
-        <v>0.05720234803699491</v>
+        <v>0.03846152381583558</v>
       </c>
       <c r="E31">
-        <v>0.01539779142565375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02062739826565606</v>
+      </c>
+      <c r="F31">
+        <v>0.01375859790542267</v>
+      </c>
+      <c r="G31">
+        <v>-0.01288578852420011</v>
+      </c>
+      <c r="H31">
+        <v>-0.04311173348589802</v>
+      </c>
+      <c r="I31">
+        <v>0.01829433391776685</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01399036074174384</v>
+        <v>0.009299469965160253</v>
       </c>
       <c r="C32">
-        <v>0.036762432393818</v>
+        <v>0.04917071115173275</v>
       </c>
       <c r="D32">
-        <v>0.08015965003164836</v>
+        <v>0.08925426771129841</v>
       </c>
       <c r="E32">
-        <v>0.05232301177203622</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.003397117893882953</v>
+      </c>
+      <c r="F32">
+        <v>0.04851127679870558</v>
+      </c>
+      <c r="G32">
+        <v>0.004654054497721847</v>
+      </c>
+      <c r="H32">
+        <v>-0.05575695150512603</v>
+      </c>
+      <c r="I32">
+        <v>-0.02181419989681277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.007486145185278812</v>
+        <v>0.004263457251780759</v>
       </c>
       <c r="C33">
-        <v>0.04128548490626988</v>
+        <v>0.06068166395538357</v>
       </c>
       <c r="D33">
-        <v>0.1202249257913982</v>
+        <v>0.1170063006857007</v>
       </c>
       <c r="E33">
-        <v>0.04073437402260634</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03143547905864575</v>
+      </c>
+      <c r="F33">
+        <v>0.02358949640286612</v>
+      </c>
+      <c r="G33">
+        <v>-0.02111454011297384</v>
+      </c>
+      <c r="H33">
+        <v>-0.05271954865965355</v>
+      </c>
+      <c r="I33">
+        <v>0.01852254367726147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.0215578093937136</v>
+        <v>0.007252777900393888</v>
       </c>
       <c r="C34">
-        <v>0.05884801904425659</v>
+        <v>0.06200734864833881</v>
       </c>
       <c r="D34">
-        <v>0.0501367947508372</v>
+        <v>0.02596790593130892</v>
       </c>
       <c r="E34">
-        <v>-0.04377085192698015</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02796437987674898</v>
+      </c>
+      <c r="F34">
+        <v>-0.04218827357664384</v>
+      </c>
+      <c r="G34">
+        <v>-0.03028124987443919</v>
+      </c>
+      <c r="H34">
+        <v>-0.03922035367936383</v>
+      </c>
+      <c r="I34">
+        <v>0.01422986738010382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002634200933561036</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.01172310001098753</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.03431897724207811</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.005215101485605878</v>
+      </c>
+      <c r="F35">
+        <v>0.01710708887957595</v>
+      </c>
+      <c r="G35">
+        <v>-0.02293854233596606</v>
+      </c>
+      <c r="H35">
+        <v>-0.05394501888683508</v>
+      </c>
+      <c r="I35">
+        <v>0.01787564583356711</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.006063497439178977</v>
+        <v>0.01096599105334012</v>
       </c>
       <c r="C36">
-        <v>0.007333400666813091</v>
+        <v>0.02256153347544526</v>
       </c>
       <c r="D36">
-        <v>0.07487709011161348</v>
+        <v>0.07315737373433583</v>
       </c>
       <c r="E36">
-        <v>0.04895667815526606</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.03063765855436403</v>
+      </c>
+      <c r="F36">
+        <v>0.04717485313871068</v>
+      </c>
+      <c r="G36">
+        <v>-0.02012221959834248</v>
+      </c>
+      <c r="H36">
+        <v>-0.06417501357763086</v>
+      </c>
+      <c r="I36">
+        <v>0.0187259081506115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.006162023334984304</v>
+        <v>0.01062581185638267</v>
       </c>
       <c r="C38">
-        <v>0.006705235162439672</v>
+        <v>0.02604182000055804</v>
       </c>
       <c r="D38">
-        <v>0.07777871018723828</v>
+        <v>0.08469425613756355</v>
       </c>
       <c r="E38">
-        <v>0.006269098305118105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.007024706511580309</v>
+      </c>
+      <c r="F38">
+        <v>0.001801035651041352</v>
+      </c>
+      <c r="G38">
+        <v>0.00441840248114575</v>
+      </c>
+      <c r="H38">
+        <v>-0.06935597166022688</v>
+      </c>
+      <c r="I38">
+        <v>0.0524696949141551</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01682858728253019</v>
+        <v>0.003172434234425875</v>
       </c>
       <c r="C39">
-        <v>0.05944395526510664</v>
+        <v>0.07926443662868457</v>
       </c>
       <c r="D39">
-        <v>0.102102870415696</v>
+        <v>0.08748548604278081</v>
       </c>
       <c r="E39">
-        <v>-0.006077726811920419</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.05164194040930361</v>
+      </c>
+      <c r="F39">
+        <v>-0.01225993483112824</v>
+      </c>
+      <c r="G39">
+        <v>-0.04939695748201924</v>
+      </c>
+      <c r="H39">
+        <v>-0.08088654261281424</v>
+      </c>
+      <c r="I39">
+        <v>0.04282037109799953</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01753140933820424</v>
+        <v>0.01240334828557063</v>
       </c>
       <c r="C40">
-        <v>0.0233718964806096</v>
+        <v>0.03887234988011586</v>
       </c>
       <c r="D40">
-        <v>0.1098360263270038</v>
+        <v>0.09288675668503636</v>
       </c>
       <c r="E40">
-        <v>-0.007190756756038984</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04209131555733146</v>
+      </c>
+      <c r="F40">
+        <v>-0.02107294774712697</v>
+      </c>
+      <c r="G40">
+        <v>0.02812462946512135</v>
+      </c>
+      <c r="H40">
+        <v>-0.1147924314007418</v>
+      </c>
+      <c r="I40">
+        <v>-0.01689663148053671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01057302392107406</v>
+        <v>0.01457374733591551</v>
       </c>
       <c r="C41">
-        <v>0.003751988861000152</v>
+        <v>0.01953072889617489</v>
       </c>
       <c r="D41">
-        <v>0.03246505932612716</v>
+        <v>0.04163615621717021</v>
       </c>
       <c r="E41">
-        <v>0.02376731418629021</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.006166198141231368</v>
+      </c>
+      <c r="F41">
+        <v>0.02253837169001245</v>
+      </c>
+      <c r="G41">
+        <v>-0.009635147962988366</v>
+      </c>
+      <c r="H41">
+        <v>-0.04454856369042369</v>
+      </c>
+      <c r="I41">
+        <v>0.01804274626270317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.001252527770560933</v>
+        <v>0.007071380574521482</v>
       </c>
       <c r="C43">
-        <v>0.004180193070893058</v>
+        <v>0.01607264610689243</v>
       </c>
       <c r="D43">
-        <v>0.05088340487910864</v>
+        <v>0.05092642581192339</v>
       </c>
       <c r="E43">
-        <v>0.01918178756892664</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01134435110349776</v>
+      </c>
+      <c r="F43">
+        <v>0.01964643313801263</v>
+      </c>
+      <c r="G43">
+        <v>-0.01273188281138499</v>
+      </c>
+      <c r="H43">
+        <v>-0.05073584650961085</v>
+      </c>
+      <c r="I43">
+        <v>0.03648837494862418</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.02063869319884274</v>
+        <v>0.01149199623891491</v>
       </c>
       <c r="C44">
-        <v>0.02296991377889096</v>
+        <v>0.04851278504204665</v>
       </c>
       <c r="D44">
-        <v>0.08702229803480283</v>
+        <v>0.1012344942799646</v>
       </c>
       <c r="E44">
-        <v>0.04946551890060702</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.0362218671417022</v>
+      </c>
+      <c r="F44">
+        <v>0.03464163602502055</v>
+      </c>
+      <c r="G44">
+        <v>0.01276109121983725</v>
+      </c>
+      <c r="H44">
+        <v>-0.0653135923056772</v>
+      </c>
+      <c r="I44">
+        <v>0.0311580280647928</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.007713190309141002</v>
+        <v>-0.00154747576175159</v>
       </c>
       <c r="C46">
-        <v>0.03048565406277068</v>
+        <v>0.04281910038839471</v>
       </c>
       <c r="D46">
-        <v>0.07700649864577945</v>
+        <v>0.07003587726808323</v>
       </c>
       <c r="E46">
-        <v>0.01953111027639353</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04460293533754377</v>
+      </c>
+      <c r="F46">
+        <v>0.02530444382569011</v>
+      </c>
+      <c r="G46">
+        <v>-0.03349456184692695</v>
+      </c>
+      <c r="H46">
+        <v>-0.1234046310119411</v>
+      </c>
+      <c r="I46">
+        <v>0.04786665530843374</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07853125313887314</v>
+        <v>0.03008179279001246</v>
       </c>
       <c r="C47">
-        <v>0.107235395365863</v>
+        <v>0.1292000183188304</v>
       </c>
       <c r="D47">
-        <v>0.04997282873558954</v>
+        <v>0.02215955508515752</v>
       </c>
       <c r="E47">
-        <v>0.01538722328169473</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.008495126472628954</v>
+      </c>
+      <c r="F47">
+        <v>-0.007016526338223079</v>
+      </c>
+      <c r="G47">
+        <v>-0.05686364309134796</v>
+      </c>
+      <c r="H47">
+        <v>-0.02953458037933095</v>
+      </c>
+      <c r="I47">
+        <v>0.026076696436675</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.009352505505315526</v>
+        <v>0.01423492350676991</v>
       </c>
       <c r="C48">
-        <v>0.0170259411706498</v>
+        <v>0.03407899914528633</v>
       </c>
       <c r="D48">
-        <v>0.07013606725687406</v>
+        <v>0.07575633564084495</v>
       </c>
       <c r="E48">
-        <v>0.05011214443294781</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.02225168093548026</v>
+      </c>
+      <c r="F48">
+        <v>0.05282874095162955</v>
+      </c>
+      <c r="G48">
+        <v>-0.03075445925728883</v>
+      </c>
+      <c r="H48">
+        <v>-0.1041030877588952</v>
+      </c>
+      <c r="I48">
+        <v>0.04092412604912412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03285645883441341</v>
+        <v>0.01075446837364265</v>
       </c>
       <c r="C50">
-        <v>0.05826440786327727</v>
+        <v>0.0758500012801285</v>
       </c>
       <c r="D50">
-        <v>0.05532991879127521</v>
+        <v>0.04708235471134618</v>
       </c>
       <c r="E50">
-        <v>0.007136481993278319</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01614868788047255</v>
+      </c>
+      <c r="F50">
+        <v>0.006298384563143563</v>
+      </c>
+      <c r="G50">
+        <v>-0.0005064384957932899</v>
+      </c>
+      <c r="H50">
+        <v>-0.02678778318864092</v>
+      </c>
+      <c r="I50">
+        <v>0.02467883876817422</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.001020249302740476</v>
+        <v>-0.001109673116850361</v>
       </c>
       <c r="C51">
-        <v>0.004974969496130832</v>
+        <v>0.01665833907608061</v>
       </c>
       <c r="D51">
-        <v>0.05480308194996848</v>
+        <v>0.05646793668360106</v>
       </c>
       <c r="E51">
-        <v>0.01912956404017922</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03903643400582552</v>
+      </c>
+      <c r="F51">
+        <v>0.03694606135578933</v>
+      </c>
+      <c r="G51">
+        <v>0.002084502273887594</v>
+      </c>
+      <c r="H51">
+        <v>-0.06679357618720266</v>
+      </c>
+      <c r="I51">
+        <v>-0.001845481684747401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1076327883759045</v>
+        <v>0.05027553090775438</v>
       </c>
       <c r="C53">
-        <v>0.1245837827469062</v>
+        <v>0.1573716197578117</v>
       </c>
       <c r="D53">
-        <v>-6.492905926437521e-05</v>
+        <v>-0.0228301295203492</v>
       </c>
       <c r="E53">
-        <v>0.04790284118713193</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02263236506699284</v>
+      </c>
+      <c r="F53">
+        <v>0.04764091312524904</v>
+      </c>
+      <c r="G53">
+        <v>-0.004765120699464362</v>
+      </c>
+      <c r="H53">
+        <v>-0.007301149099228826</v>
+      </c>
+      <c r="I53">
+        <v>0.01825374262366423</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01039119008652583</v>
+        <v>0.009368696693348952</v>
       </c>
       <c r="C54">
-        <v>0.02172597136987083</v>
+        <v>0.03864499865829197</v>
       </c>
       <c r="D54">
-        <v>0.08721929997881032</v>
+        <v>0.07710053112120917</v>
       </c>
       <c r="E54">
-        <v>0.008643651676737137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.02167571795789258</v>
+      </c>
+      <c r="F54">
+        <v>0.0007133352031889809</v>
+      </c>
+      <c r="G54">
+        <v>-0.009664444409538033</v>
+      </c>
+      <c r="H54">
+        <v>-0.07579112587979374</v>
+      </c>
+      <c r="I54">
+        <v>0.04856794383672024</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09383932700157177</v>
+        <v>0.03914338715988846</v>
       </c>
       <c r="C55">
-        <v>0.1065966964237126</v>
+        <v>0.1317305301430559</v>
       </c>
       <c r="D55">
-        <v>0.006355807690151904</v>
+        <v>-0.03211214124488462</v>
       </c>
       <c r="E55">
-        <v>0.004035419403436756</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.008787056454347918</v>
+      </c>
+      <c r="F55">
+        <v>0.008193955378178229</v>
+      </c>
+      <c r="G55">
+        <v>-0.002761766254570495</v>
+      </c>
+      <c r="H55">
+        <v>-0.008344125275406514</v>
+      </c>
+      <c r="I55">
+        <v>-0.009377479230545103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1350068748389164</v>
+        <v>0.05341743539822252</v>
       </c>
       <c r="C56">
-        <v>0.1447950239196756</v>
+        <v>0.1920061371423865</v>
       </c>
       <c r="D56">
-        <v>0.007084801314856483</v>
+        <v>-0.0317725128853292</v>
       </c>
       <c r="E56">
-        <v>-0.002156767424512427</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.02610408454953629</v>
+      </c>
+      <c r="F56">
+        <v>0.01374275309476579</v>
+      </c>
+      <c r="G56">
+        <v>0.04259501265758566</v>
+      </c>
+      <c r="H56">
+        <v>-0.03156383553304157</v>
+      </c>
+      <c r="I56">
+        <v>-0.004852458986306739</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.009974357108555326</v>
+        <v>0.001772812996918032</v>
       </c>
       <c r="C58">
-        <v>0.009270988517996853</v>
+        <v>0.05478711482016794</v>
       </c>
       <c r="D58">
-        <v>0.216830292499195</v>
+        <v>0.2894249068688299</v>
       </c>
       <c r="E58">
-        <v>0.1128434312322463</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02503659384341923</v>
+      </c>
+      <c r="F58">
+        <v>0.120466274664834</v>
+      </c>
+      <c r="G58">
+        <v>0.168355385016829</v>
+      </c>
+      <c r="H58">
+        <v>0.0219184792823227</v>
+      </c>
+      <c r="I58">
+        <v>0.03606594167481971</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1810028510567909</v>
+        <v>0.2542124982424881</v>
       </c>
       <c r="C59">
-        <v>-0.1457058596782669</v>
+        <v>-0.05663540675588341</v>
       </c>
       <c r="D59">
-        <v>0.04070287837219371</v>
+        <v>0.0530332535123998</v>
       </c>
       <c r="E59">
-        <v>0.03040890862751608</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02464068055594173</v>
+      </c>
+      <c r="F59">
+        <v>0.02664489123361432</v>
+      </c>
+      <c r="G59">
+        <v>0.01251774244798699</v>
+      </c>
+      <c r="H59">
+        <v>-0.01571458629015859</v>
+      </c>
+      <c r="I59">
+        <v>-0.03314904883961533</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1839876607758839</v>
+        <v>0.1482556655895209</v>
       </c>
       <c r="C60">
-        <v>0.1011691036438959</v>
+        <v>0.1751442304825692</v>
       </c>
       <c r="D60">
-        <v>0.2276192155581732</v>
+        <v>0.09792400313518594</v>
       </c>
       <c r="E60">
-        <v>-0.06983859906705957</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1436850938644785</v>
+      </c>
+      <c r="F60">
+        <v>-0.2033125472705248</v>
+      </c>
+      <c r="G60">
+        <v>-0.1612783089688885</v>
+      </c>
+      <c r="H60">
+        <v>0.2817767716772206</v>
+      </c>
+      <c r="I60">
+        <v>-0.1634020026138958</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02533244777703183</v>
+        <v>0.01014115893214488</v>
       </c>
       <c r="C61">
-        <v>0.05358532794568791</v>
+        <v>0.0751653773645161</v>
       </c>
       <c r="D61">
-        <v>0.08403908536886408</v>
+        <v>0.07129181712974877</v>
       </c>
       <c r="E61">
-        <v>-0.00478550825961436</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03779082084425068</v>
+      </c>
+      <c r="F61">
+        <v>-0.01738576622274257</v>
+      </c>
+      <c r="G61">
+        <v>-0.05811806131715731</v>
+      </c>
+      <c r="H61">
+        <v>-0.06578464429247036</v>
+      </c>
+      <c r="I61">
+        <v>0.02996368141859898</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.007402483171079333</v>
+        <v>0.00802717159544203</v>
       </c>
       <c r="C63">
-        <v>0.02362465675061116</v>
+        <v>0.03734598025138559</v>
       </c>
       <c r="D63">
-        <v>0.09130484649985306</v>
+        <v>0.06767135994892254</v>
       </c>
       <c r="E63">
-        <v>0.02855141857499593</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.05832232397487792</v>
+      </c>
+      <c r="F63">
+        <v>0.02332620718766982</v>
+      </c>
+      <c r="G63">
+        <v>-0.02680019425271624</v>
+      </c>
+      <c r="H63">
+        <v>-0.0670017213277645</v>
+      </c>
+      <c r="I63">
+        <v>0.03261650424918109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.0580427538175133</v>
+        <v>0.01544826309180696</v>
       </c>
       <c r="C64">
-        <v>0.0882789627167163</v>
+        <v>0.1064370023506895</v>
       </c>
       <c r="D64">
-        <v>0.009395315142859385</v>
+        <v>0.005482507557691628</v>
       </c>
       <c r="E64">
-        <v>0.01272385779468448</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02329039376842811</v>
+      </c>
+      <c r="F64">
+        <v>0.008478089712519335</v>
+      </c>
+      <c r="G64">
+        <v>-0.05847899111512955</v>
+      </c>
+      <c r="H64">
+        <v>-0.04037142017772424</v>
+      </c>
+      <c r="I64">
+        <v>0.05476711125700912</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02619282577648106</v>
+        <v>0.02061022055788908</v>
       </c>
       <c r="C65">
-        <v>0.01569328282333068</v>
+        <v>0.04440140216741888</v>
       </c>
       <c r="D65">
-        <v>0.1082501197596937</v>
+        <v>0.1143610193704701</v>
       </c>
       <c r="E65">
-        <v>0.02029724409446558</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04713022137738501</v>
+      </c>
+      <c r="F65">
+        <v>-0.009327128397789861</v>
+      </c>
+      <c r="G65">
+        <v>-0.03851060812933559</v>
+      </c>
+      <c r="H65">
+        <v>0.0101760725655971</v>
+      </c>
+      <c r="I65">
+        <v>0.03717138934080576</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.0223739841161603</v>
+        <v>-0.0002704893261111969</v>
       </c>
       <c r="C66">
-        <v>0.06870488536865965</v>
+        <v>0.09770994395420392</v>
       </c>
       <c r="D66">
-        <v>0.1206235546454076</v>
+        <v>0.1173982576881461</v>
       </c>
       <c r="E66">
-        <v>-0.00503528334832485</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.04328154373950469</v>
+      </c>
+      <c r="F66">
+        <v>-0.0120109993577353</v>
+      </c>
+      <c r="G66">
+        <v>-0.01290064083424329</v>
+      </c>
+      <c r="H66">
+        <v>-0.06149978214552403</v>
+      </c>
+      <c r="I66">
+        <v>0.03570114262753574</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02389621300380747</v>
+        <v>0.02028862065813235</v>
       </c>
       <c r="C67">
-        <v>0.02012316342616846</v>
+        <v>0.03738804599903307</v>
       </c>
       <c r="D67">
-        <v>0.04004305083399212</v>
+        <v>0.04050262872217211</v>
       </c>
       <c r="E67">
-        <v>-0.02383400357302881</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01256669388996516</v>
+      </c>
+      <c r="F67">
+        <v>-0.02911366927151542</v>
+      </c>
+      <c r="G67">
+        <v>-0.01172551383641788</v>
+      </c>
+      <c r="H67">
+        <v>-0.05890030290914779</v>
+      </c>
+      <c r="I67">
+        <v>0.0432465647370183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2030662439446005</v>
+        <v>0.2775378238668136</v>
       </c>
       <c r="C68">
-        <v>-0.1559352499944873</v>
+        <v>-0.06300844507728814</v>
       </c>
       <c r="D68">
-        <v>0.03063849417658878</v>
+        <v>0.02947111292938391</v>
       </c>
       <c r="E68">
-        <v>0.02196927851386254</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.00218474563708266</v>
+      </c>
+      <c r="F68">
+        <v>0.02859707460910948</v>
+      </c>
+      <c r="G68">
+        <v>0.0850374344534371</v>
+      </c>
+      <c r="H68">
+        <v>0.02773195116338485</v>
+      </c>
+      <c r="I68">
+        <v>-0.01511007921177092</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05360384277256151</v>
+        <v>0.01438744797801427</v>
       </c>
       <c r="C69">
-        <v>0.1167115299608799</v>
+        <v>0.1183519004252605</v>
       </c>
       <c r="D69">
-        <v>0.0752966615627494</v>
+        <v>0.03024796946183363</v>
       </c>
       <c r="E69">
-        <v>0.01175257796792073</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01087278502083244</v>
+      </c>
+      <c r="F69">
+        <v>-0.01118853263874809</v>
+      </c>
+      <c r="G69">
+        <v>-0.03950700884241594</v>
+      </c>
+      <c r="H69">
+        <v>-0.0275057133099395</v>
+      </c>
+      <c r="I69">
+        <v>0.008759112046225927</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2127440535094816</v>
+        <v>0.276875901648281</v>
       </c>
       <c r="C71">
-        <v>-0.1794625401079688</v>
+        <v>-0.07620654677542635</v>
       </c>
       <c r="D71">
-        <v>0.01754641858198422</v>
+        <v>0.01557790087116294</v>
       </c>
       <c r="E71">
-        <v>0.009422151084452471</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.001444031090240727</v>
+      </c>
+      <c r="F71">
+        <v>0.01394926593822862</v>
+      </c>
+      <c r="G71">
+        <v>0.02895310781424524</v>
+      </c>
+      <c r="H71">
+        <v>-0.01227924236799001</v>
+      </c>
+      <c r="I71">
+        <v>0.008141518653476641</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1030789148201937</v>
+        <v>0.05383352975319947</v>
       </c>
       <c r="C72">
-        <v>0.07649862071148535</v>
+        <v>0.1287113957068712</v>
       </c>
       <c r="D72">
-        <v>0.1160636699973988</v>
+        <v>0.06168828181058472</v>
       </c>
       <c r="E72">
-        <v>-0.01300844268488608</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.07145494001692246</v>
+      </c>
+      <c r="F72">
+        <v>-0.02945398929198251</v>
+      </c>
+      <c r="G72">
+        <v>-0.0601221636361918</v>
+      </c>
+      <c r="H72">
+        <v>-0.02386066383622165</v>
+      </c>
+      <c r="I72">
+        <v>0.02994659703644737</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1731314669288745</v>
+        <v>0.1378013889613577</v>
       </c>
       <c r="C73">
-        <v>0.06817076612399733</v>
+        <v>0.1522005997845497</v>
       </c>
       <c r="D73">
-        <v>0.2762710861735872</v>
+        <v>0.1037907503530963</v>
       </c>
       <c r="E73">
-        <v>-0.1197070457390298</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2609353849403646</v>
+      </c>
+      <c r="F73">
+        <v>-0.2910012074862949</v>
+      </c>
+      <c r="G73">
+        <v>-0.3327788006804863</v>
+      </c>
+      <c r="H73">
+        <v>0.2917614116470976</v>
+      </c>
+      <c r="I73">
+        <v>-0.08863234305294874</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1067788280034011</v>
+        <v>0.04865763631035385</v>
       </c>
       <c r="C74">
-        <v>0.1141197485771874</v>
+        <v>0.1444328581024797</v>
       </c>
       <c r="D74">
-        <v>-0.02439481445093636</v>
+        <v>-0.04356704295813213</v>
       </c>
       <c r="E74">
-        <v>0.03555429811454578</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.00900006451973371</v>
+      </c>
+      <c r="F74">
+        <v>0.03532980415222077</v>
+      </c>
+      <c r="G74">
+        <v>0.0006000456538073528</v>
+      </c>
+      <c r="H74">
+        <v>0.01936965756122826</v>
+      </c>
+      <c r="I74">
+        <v>-0.01070163251768264</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2323142631559466</v>
+        <v>0.09832113921338746</v>
       </c>
       <c r="C75">
-        <v>0.1978178455774105</v>
+        <v>0.2707332042602369</v>
       </c>
       <c r="D75">
-        <v>-0.09441734000011259</v>
+        <v>-0.1303918042044256</v>
       </c>
       <c r="E75">
-        <v>-0.06184908323999561</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.09106788534998705</v>
+      </c>
+      <c r="F75">
+        <v>-0.03237913524688501</v>
+      </c>
+      <c r="G75">
+        <v>0.09037068027090085</v>
+      </c>
+      <c r="H75">
+        <v>-0.04708701555540364</v>
+      </c>
+      <c r="I75">
+        <v>0.06370598528499229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1379852042562478</v>
+        <v>0.05584260331605785</v>
       </c>
       <c r="C76">
-        <v>0.137647220804193</v>
+        <v>0.1815071383164727</v>
       </c>
       <c r="D76">
-        <v>0.0009500119087280344</v>
+        <v>-0.04655224524961998</v>
       </c>
       <c r="E76">
-        <v>-0.008066372203271175</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.01807231529938678</v>
+      </c>
+      <c r="F76">
+        <v>0.0007027508100383451</v>
+      </c>
+      <c r="G76">
+        <v>0.02753957215292577</v>
+      </c>
+      <c r="H76">
+        <v>-0.04561938549319632</v>
+      </c>
+      <c r="I76">
+        <v>0.01488874194429052</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02142813143789826</v>
+        <v>-0.001432813472140307</v>
       </c>
       <c r="C77">
-        <v>0.06770857317523607</v>
+        <v>0.1059807943032633</v>
       </c>
       <c r="D77">
-        <v>-0.01004983511851996</v>
+        <v>0.3166580706118643</v>
       </c>
       <c r="E77">
-        <v>0.03120600348015996</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.8586724641131307</v>
+      </c>
+      <c r="F77">
+        <v>-0.1775650720012496</v>
+      </c>
+      <c r="G77">
+        <v>-0.1323009054821351</v>
+      </c>
+      <c r="H77">
+        <v>0.1920692865126969</v>
+      </c>
+      <c r="I77">
+        <v>-0.01219464123478786</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.03018082623071824</v>
+        <v>0.01514141431167376</v>
       </c>
       <c r="C78">
-        <v>0.07080871620806789</v>
+        <v>0.09188833186428048</v>
       </c>
       <c r="D78">
-        <v>0.1450403543036815</v>
+        <v>0.1120324219711783</v>
       </c>
       <c r="E78">
-        <v>0.05473592746764737</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06589707536556655</v>
+      </c>
+      <c r="F78">
+        <v>0.04153015215680985</v>
+      </c>
+      <c r="G78">
+        <v>0.02276744477668808</v>
+      </c>
+      <c r="H78">
+        <v>-0.06317155319304492</v>
+      </c>
+      <c r="I78">
+        <v>-0.03340608434231592</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1001006376768593</v>
+        <v>0.03386553981400062</v>
       </c>
       <c r="C79">
-        <v>0.1839510646547086</v>
+        <v>0.1971738664926063</v>
       </c>
       <c r="D79">
-        <v>-0.2352550401101519</v>
+        <v>-0.08994994713987745</v>
       </c>
       <c r="E79">
-        <v>0.868898742360446</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05085498032377857</v>
+      </c>
+      <c r="F79">
+        <v>0.8080570281586045</v>
+      </c>
+      <c r="G79">
+        <v>-0.2585067354629088</v>
+      </c>
+      <c r="H79">
+        <v>0.3605175510996882</v>
+      </c>
+      <c r="I79">
+        <v>-0.03505194955442443</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.003894201088068048</v>
+        <v>0.004235802184139981</v>
       </c>
       <c r="C80">
-        <v>0.04447138573148165</v>
+        <v>0.04388619674260356</v>
       </c>
       <c r="D80">
-        <v>0.05016129837671093</v>
+        <v>0.04022914874658294</v>
       </c>
       <c r="E80">
-        <v>0.0006041994623513444</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04487029159071949</v>
+      </c>
+      <c r="F80">
+        <v>-0.0004943072104858677</v>
+      </c>
+      <c r="G80">
+        <v>-0.01487124207579508</v>
+      </c>
+      <c r="H80">
+        <v>-0.03884247621726455</v>
+      </c>
+      <c r="I80">
+        <v>-0.08256743036202871</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1183347282862634</v>
+        <v>0.03915100662104895</v>
       </c>
       <c r="C81">
-        <v>0.1349218757692598</v>
+        <v>0.1664163540092384</v>
       </c>
       <c r="D81">
-        <v>-0.08251516330571859</v>
+        <v>-0.08502939574927963</v>
       </c>
       <c r="E81">
-        <v>0.02306084002198396</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04305890396654246</v>
+      </c>
+      <c r="F81">
+        <v>0.057006314000397</v>
+      </c>
+      <c r="G81">
+        <v>0.03151981611817747</v>
+      </c>
+      <c r="H81">
+        <v>-0.08782716290415847</v>
+      </c>
+      <c r="I81">
+        <v>0.00654773444294943</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2501187723715065</v>
+        <v>0.08469677316733523</v>
       </c>
       <c r="C82">
-        <v>0.2921515577542183</v>
+        <v>0.3181315760182069</v>
       </c>
       <c r="D82">
-        <v>-0.1872370633359607</v>
+        <v>-0.240947950252831</v>
       </c>
       <c r="E82">
-        <v>-0.1969894557107999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.06103329644418921</v>
+      </c>
+      <c r="F82">
+        <v>-0.1196950737031757</v>
+      </c>
+      <c r="G82">
+        <v>0.06444375128373477</v>
+      </c>
+      <c r="H82">
+        <v>-0.1361132213250467</v>
+      </c>
+      <c r="I82">
+        <v>0.009148609772570968</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.01046047377114431</v>
+        <v>-0.01579153115907919</v>
       </c>
       <c r="C83">
-        <v>0.05220425688584896</v>
+        <v>0.01798564897038759</v>
       </c>
       <c r="D83">
-        <v>0.002247979887771993</v>
+        <v>0.01358495015561297</v>
       </c>
       <c r="E83">
-        <v>0.03188190045053975</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.08528667247756354</v>
+      </c>
+      <c r="F83">
+        <v>0.06927723896663306</v>
+      </c>
+      <c r="G83">
+        <v>-0.009652303676812158</v>
+      </c>
+      <c r="H83">
+        <v>-0.273283318354624</v>
+      </c>
+      <c r="I83">
+        <v>-0.8939578211409424</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.0001431614964373568</v>
+        <v>-0.003487300742993321</v>
       </c>
       <c r="C84">
-        <v>-0.001367496391979818</v>
+        <v>0.01770411396399153</v>
       </c>
       <c r="D84">
-        <v>0.001105901548987355</v>
+        <v>0.04329449031798191</v>
       </c>
       <c r="E84">
-        <v>-0.002240014913026157</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.001602941840958574</v>
+      </c>
+      <c r="F84">
+        <v>0.03067454800879815</v>
+      </c>
+      <c r="G84">
+        <v>0.03713243550977413</v>
+      </c>
+      <c r="H84">
+        <v>-0.04566273299530178</v>
+      </c>
+      <c r="I84">
+        <v>0.06384015406352517</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1403047623559744</v>
+        <v>0.05377454787475749</v>
       </c>
       <c r="C85">
-        <v>0.1403507385841758</v>
+        <v>0.1838655545876975</v>
       </c>
       <c r="D85">
-        <v>-0.05736139073202724</v>
+        <v>-0.0988090804814253</v>
       </c>
       <c r="E85">
-        <v>0.03677825258521551</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.001770608268782385</v>
+      </c>
+      <c r="F85">
+        <v>0.06851273490705537</v>
+      </c>
+      <c r="G85">
+        <v>0.02190188174055642</v>
+      </c>
+      <c r="H85">
+        <v>0.002137775803411225</v>
+      </c>
+      <c r="I85">
+        <v>0.004602622632994309</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01666658820039816</v>
+        <v>0.01141859415555248</v>
       </c>
       <c r="C86">
-        <v>0.009481742763134867</v>
+        <v>0.03568311594565803</v>
       </c>
       <c r="D86">
-        <v>0.09633669741417751</v>
+        <v>0.1102861887036537</v>
       </c>
       <c r="E86">
-        <v>0.02858540968343139</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.0130156923268227</v>
+      </c>
+      <c r="F86">
+        <v>0.00440190006207858</v>
+      </c>
+      <c r="G86">
+        <v>-0.02486857297743321</v>
+      </c>
+      <c r="H86">
+        <v>-0.02550843900381445</v>
+      </c>
+      <c r="I86">
+        <v>0.02161959048276426</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02124035865424895</v>
+        <v>0.01028112006364503</v>
       </c>
       <c r="C87">
-        <v>0.02620563937385578</v>
+        <v>0.06046461583073137</v>
       </c>
       <c r="D87">
-        <v>0.1260166496356573</v>
+        <v>0.138218610828005</v>
       </c>
       <c r="E87">
-        <v>0.05374803928808788</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01286035079399508</v>
+      </c>
+      <c r="F87">
+        <v>0.04026205467045527</v>
+      </c>
+      <c r="G87">
+        <v>0.03261190807727494</v>
+      </c>
+      <c r="H87">
+        <v>-0.0856006575744982</v>
+      </c>
+      <c r="I87">
+        <v>-0.007023618363978471</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05009319496772247</v>
+        <v>0.03023124007525988</v>
       </c>
       <c r="C88">
-        <v>0.04438050112891528</v>
+        <v>0.06817452512084529</v>
       </c>
       <c r="D88">
-        <v>0.01696824550183494</v>
+        <v>0.0146452912509353</v>
       </c>
       <c r="E88">
-        <v>0.02927286882633596</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02971712831647867</v>
+      </c>
+      <c r="F88">
+        <v>0.01930098225188287</v>
+      </c>
+      <c r="G88">
+        <v>-0.01588347925635005</v>
+      </c>
+      <c r="H88">
+        <v>0.001847936437311621</v>
+      </c>
+      <c r="I88">
+        <v>0.02765493140556827</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3193853224571496</v>
+        <v>0.4107033922982211</v>
       </c>
       <c r="C89">
-        <v>-0.3255078373657098</v>
+        <v>-0.1470464439577636</v>
       </c>
       <c r="D89">
-        <v>0.009267443302582072</v>
+        <v>0.0375765908195901</v>
       </c>
       <c r="E89">
-        <v>0.08457807519541691</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.05160820905449427</v>
+      </c>
+      <c r="F89">
+        <v>0.06246938759408503</v>
+      </c>
+      <c r="G89">
+        <v>-0.02337757835026472</v>
+      </c>
+      <c r="H89">
+        <v>-0.1442106103666449</v>
+      </c>
+      <c r="I89">
+        <v>-0.05695824780762783</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2548297535919662</v>
+        <v>0.3218216687601952</v>
       </c>
       <c r="C90">
-        <v>-0.2401122415085312</v>
+        <v>-0.09991956572878237</v>
       </c>
       <c r="D90">
-        <v>0.05121574052026586</v>
+        <v>0.03573104316826789</v>
       </c>
       <c r="E90">
-        <v>-0.008058541222358221</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.007974639847873482</v>
+      </c>
+      <c r="F90">
+        <v>-0.004948089757264098</v>
+      </c>
+      <c r="G90">
+        <v>0.06355070869667467</v>
+      </c>
+      <c r="H90">
+        <v>-0.02819619986833723</v>
+      </c>
+      <c r="I90">
+        <v>-0.0264246726790171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.15462160331042</v>
+        <v>0.06352272644076369</v>
       </c>
       <c r="C91">
-        <v>0.184869472376298</v>
+        <v>0.206899984438332</v>
       </c>
       <c r="D91">
-        <v>-0.1020029703560288</v>
+        <v>-0.1099620974122303</v>
       </c>
       <c r="E91">
-        <v>0.05932926832088949</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05744139187124741</v>
+      </c>
+      <c r="F91">
+        <v>0.06484660682635711</v>
+      </c>
+      <c r="G91">
+        <v>0.009355049043421625</v>
+      </c>
+      <c r="H91">
+        <v>0.003320687928019719</v>
+      </c>
+      <c r="I91">
+        <v>-0.02620258441397928</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2407189466679318</v>
+        <v>0.3403144847311936</v>
       </c>
       <c r="C92">
-        <v>-0.2623868958788236</v>
+        <v>-0.1349043489228062</v>
       </c>
       <c r="D92">
-        <v>-0.06303964744097644</v>
+        <v>0.003103645409732652</v>
       </c>
       <c r="E92">
-        <v>0.01606841377017064</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06187583539000892</v>
+      </c>
+      <c r="F92">
+        <v>0.03027508377356952</v>
+      </c>
+      <c r="G92">
+        <v>0.02817610474117414</v>
+      </c>
+      <c r="H92">
+        <v>-0.00860858681694897</v>
+      </c>
+      <c r="I92">
+        <v>0.1393060102529488</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2824959865180844</v>
+        <v>0.3359348817056413</v>
       </c>
       <c r="C93">
-        <v>-0.249559284374311</v>
+        <v>-0.1069990031613825</v>
       </c>
       <c r="D93">
-        <v>0.004681461839174955</v>
+        <v>-0.02016438358209675</v>
       </c>
       <c r="E93">
-        <v>0.01162668475726323</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02638140808685731</v>
+      </c>
+      <c r="F93">
+        <v>0.004973002411028879</v>
+      </c>
+      <c r="G93">
+        <v>-0.004842697258755847</v>
+      </c>
+      <c r="H93">
+        <v>0.02879721049533354</v>
+      </c>
+      <c r="I93">
+        <v>0.02776814651997843</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2915263392661517</v>
+        <v>0.119984707275044</v>
       </c>
       <c r="C94">
-        <v>0.270838755927805</v>
+        <v>0.3496937312634995</v>
       </c>
       <c r="D94">
-        <v>-0.2883069302898322</v>
+        <v>-0.3587306605003365</v>
       </c>
       <c r="E94">
-        <v>-0.2515748759016948</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.05380025911917654</v>
+      </c>
+      <c r="F94">
+        <v>-0.1176644912673803</v>
+      </c>
+      <c r="G94">
+        <v>0.3281313880015536</v>
+      </c>
+      <c r="H94">
+        <v>-0.04903661746633173</v>
+      </c>
+      <c r="I94">
+        <v>0.02252027024094081</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01426793464086941</v>
+        <v>0.01384698618630155</v>
       </c>
       <c r="C95">
-        <v>0.04116203322310878</v>
+        <v>0.06571617332854349</v>
       </c>
       <c r="D95">
-        <v>-0.02107477162818579</v>
+        <v>0.09056747543352354</v>
       </c>
       <c r="E95">
-        <v>-0.005401360406737914</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1600586150886553</v>
+      </c>
+      <c r="F95">
+        <v>-0.03618177279517505</v>
+      </c>
+      <c r="G95">
+        <v>-0.1822687808651232</v>
+      </c>
+      <c r="H95">
+        <v>-0.270679912803742</v>
+      </c>
+      <c r="I95">
+        <v>0.1969571574556476</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001646326324054592</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0009712883999098353</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0007191841732484985</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003795883429736587</v>
+      </c>
+      <c r="F97">
+        <v>0.000302299724022826</v>
+      </c>
+      <c r="G97">
+        <v>0.0001738811871871974</v>
+      </c>
+      <c r="H97">
+        <v>-0.002620799701122065</v>
+      </c>
+      <c r="I97">
+        <v>0.00643178366115393</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1501249874830319</v>
+        <v>0.1203158847338375</v>
       </c>
       <c r="C98">
-        <v>0.08558692765672432</v>
+        <v>0.1546107449511088</v>
       </c>
       <c r="D98">
-        <v>0.1814370391833869</v>
+        <v>0.0736232382332808</v>
       </c>
       <c r="E98">
-        <v>-0.1051018379021131</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1760462759450103</v>
+      </c>
+      <c r="F98">
+        <v>-0.2281987662074078</v>
+      </c>
+      <c r="G98">
+        <v>-0.2325921221494386</v>
+      </c>
+      <c r="H98">
+        <v>0.2462620798370989</v>
+      </c>
+      <c r="I98">
+        <v>-0.1196917143493879</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.0009434413259991711</v>
+        <v>0.001547658391534899</v>
       </c>
       <c r="C101">
-        <v>0.01992630158559829</v>
+        <v>0.03663136819683708</v>
       </c>
       <c r="D101">
-        <v>0.08270034241154074</v>
+        <v>0.101196242541215</v>
       </c>
       <c r="E101">
-        <v>0.03069318246448202</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.0573215171319162</v>
+      </c>
+      <c r="F101">
+        <v>0.03378895256958223</v>
+      </c>
+      <c r="G101">
+        <v>-0.05431376870102225</v>
+      </c>
+      <c r="H101">
+        <v>-0.1421299752873763</v>
+      </c>
+      <c r="I101">
+        <v>0.01842336311207852</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1056011805783406</v>
+        <v>0.02650059747577729</v>
       </c>
       <c r="C102">
-        <v>0.1575108268364064</v>
+        <v>0.1480309660095968</v>
       </c>
       <c r="D102">
-        <v>-0.05418109615090321</v>
+        <v>-0.09844863078070853</v>
       </c>
       <c r="E102">
-        <v>-0.08188571941327794</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03658089390557902</v>
+      </c>
+      <c r="F102">
+        <v>-0.07051154959238949</v>
+      </c>
+      <c r="G102">
+        <v>-0.01742516697369999</v>
+      </c>
+      <c r="H102">
+        <v>-0.03509350718159155</v>
+      </c>
+      <c r="I102">
+        <v>-0.01695038900547625</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
